--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1234.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1234.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.888484616394993</v>
+        <v>1.203892230987549</v>
       </c>
       <c r="B1">
-        <v>2.376860416972904</v>
+        <v>1.918632507324219</v>
       </c>
       <c r="C1">
-        <v>1.795475906181354</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>1.680625822012519</v>
+        <v>1.930150508880615</v>
       </c>
       <c r="E1">
-        <v>1.5347696736667</v>
+        <v>1.204926609992981</v>
       </c>
     </row>
   </sheetData>
